--- a/src/check-list/YenLT/CheckList20101115.xlsx
+++ b/src/check-list/YenLT/CheckList20101115.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Công việc tuần" sheetId="10" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="47">
   <si>
     <t>BÁO CÁO THỰC HIỆN CÔNG VIỆC NGÀY</t>
   </si>
@@ -141,12 +141,6 @@
     <t>PML-Java</t>
   </si>
   <si>
-    <t>BTDKT</t>
-  </si>
-  <si>
-    <t>16/8/2010</t>
-  </si>
-  <si>
     <t>21/8/2010</t>
   </si>
   <si>
@@ -166,6 +160,54 @@
   </si>
   <si>
     <t>fix giữ biến loại VB khi dùng search tiêu chí, giữ biến header</t>
+  </si>
+  <si>
+    <t>PMLNEW</t>
+  </si>
+  <si>
+    <t>khi search theo tiêu chí thì giữ được biến</t>
+  </si>
+  <si>
+    <t>xem database sao cách lưu VB đi ko lưu actor</t>
+  </si>
+  <si>
+    <t>TTCN</t>
+  </si>
+  <si>
+    <t>thêm thử vb thì ko có tình trạng đó xảy ra</t>
+  </si>
+  <si>
+    <t>TP và chuyên viên xử lý chính có chức năng sửa cách thức xử lý</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>hoàn thành</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xem dữ liệu VB đi lưu sai </t>
+  </si>
+  <si>
+    <t>chưa tìm ra nguyên nhân lưu sai</t>
+  </si>
+  <si>
+    <t>khắc phục những VB lưu sai bằng cách sửa db, xóa những đối tượng đã xóa trong service nhưng vẫn còn trong hệ thống.hoàn thành</t>
+  </si>
+  <si>
+    <t>cập nhật phần chuyển nhiều VB</t>
+  </si>
+  <si>
+    <t>fix ràng buộc của VB liên thông khi chuyển</t>
+  </si>
+  <si>
+    <t>ràng buộc khi xóa trong các bảng, hoàn thành</t>
+  </si>
+  <si>
+    <t>cập nhật chức năng rút lại VB đến và đi</t>
+  </si>
+  <si>
+    <t>cập nhật phần chuyển nhiều VB, rút lại VB</t>
   </si>
 </sst>
 </file>
@@ -946,8 +988,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -980,14 +1022,14 @@
         <v>21</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
       <c r="F2" s="48"/>
       <c r="G2" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="48"/>
     </row>
@@ -1068,9 +1110,15 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="38"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
@@ -1078,19 +1126,33 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="A9" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="37"/>
+      <c r="A10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D10" s="37"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -1098,10 +1160,18 @@
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -1384,8 +1454,8 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1420,7 +1490,7 @@
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
       <c r="F2" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
@@ -1500,10 +1570,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>25</v>
@@ -1511,16 +1581,26 @@
       <c r="D8" s="38"/>
       <c r="E8" s="8"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="38"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="7"/>
@@ -1765,7 +1845,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1800,7 +1880,7 @@
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
       <c r="F2" s="55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="55"/>
     </row>
@@ -1876,13 +1956,21 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="38"/>
@@ -2151,7 +2239,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2186,7 +2274,7 @@
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
       <c r="F2" s="55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="55"/>
     </row>
@@ -2262,13 +2350,21 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="38"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="39"/>
@@ -2537,7 +2633,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2572,7 +2668,7 @@
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
       <c r="F2" s="55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="55"/>
     </row>
@@ -2647,23 +2743,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="39"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="37"/>
+    <row r="8" spans="1:7" ht="38.25">
+      <c r="A8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="37"/>
       <c r="E8" s="8"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="39"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="37"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="39"/>
@@ -2923,7 +3035,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2958,7 +3070,7 @@
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
       <c r="F2" s="55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="55"/>
     </row>
@@ -3034,18 +3146,32 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="38"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" s="37"/>
       <c r="E8" s="8"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
@@ -3344,7 +3470,7 @@
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
       <c r="F2" s="55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="55"/>
     </row>
